--- a/Data/EC/NIT-9005923141.xlsx
+++ b/Data/EC/NIT-9005923141.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A379B658-A6A3-4CB9-81EE-126802BDC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{160A67E2-0D74-4766-9E85-DE89C5B960A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2E02C72-8E63-4FAA-873A-B3FEC7B3B1B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69967ADB-2A81-434F-860C-A0A0BAC5B2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,79 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45760619</t>
-  </si>
-  <si>
-    <t>SUGEIDI IRENE RAMOS RIOS</t>
-  </si>
-  <si>
-    <t>1704</t>
+    <t>73099445</t>
+  </si>
+  <si>
+    <t>RAFAEL MENDOZA MORALES</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1050954035</t>
+  </si>
+  <si>
+    <t>YOSIRA RODRIGUEZ ARNEDO</t>
+  </si>
+  <si>
+    <t>33332629</t>
+  </si>
+  <si>
+    <t>YAMILIS MARIA ZAMORA LOPEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>3815142</t>
+  </si>
+  <si>
+    <t>OSCAR ANTONIO MARIMON DIAZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1143390962</t>
+  </si>
+  <si>
+    <t>ANA JUDITH HERRERA PEREZ</t>
+  </si>
+  <si>
+    <t>1143114814</t>
+  </si>
+  <si>
+    <t>KELLY JOHANA IBARRA SAN JUAN</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>20218222</t>
+  </si>
+  <si>
+    <t>JESSICA ANDREINA CHACON</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1051417255</t>
+  </si>
+  <si>
+    <t>FARIDES DEL CARMEN VILLARREAL OROZCO</t>
+  </si>
+  <si>
+    <t>1912</t>
   </si>
   <si>
     <t>45546589</t>
@@ -80,51 +146,12 @@
     <t>CLAUDIA PATRICIA MARIÑO MELO</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>73099445</t>
-  </si>
-  <si>
-    <t>RAFAEL MENDOZA MORALES</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>3815142</t>
-  </si>
-  <si>
-    <t>OSCAR ANTONIO MARIMON DIAZ</t>
-  </si>
-  <si>
-    <t>1050954035</t>
-  </si>
-  <si>
-    <t>YOSIRA RODRIGUEZ ARNEDO</t>
-  </si>
-  <si>
-    <t>1143114814</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA IBARRA SAN JUAN</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
     <t>1143402047</t>
   </si>
   <si>
@@ -134,52 +161,16 @@
     <t>2105</t>
   </si>
   <si>
-    <t>33332629</t>
-  </si>
-  <si>
-    <t>YAMILIS MARIA ZAMORA LOPEZ</t>
-  </si>
-  <si>
-    <t>1143390962</t>
-  </si>
-  <si>
-    <t>ANA JUDITH HERRERA PEREZ</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>20218222</t>
-  </si>
-  <si>
-    <t>JESSICA ANDREINA CHACON</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1051417255</t>
-  </si>
-  <si>
-    <t>FARIDES DEL CARMEN VILLARREAL OROZCO</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
     <t>1143408633</t>
   </si>
   <si>
     <t>OSMAR JULIAN BARRIOS ROMERO</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
     <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -278,7 +269,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -291,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -493,23 +484,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,10 +528,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4064296C-F773-45CC-ABE3-1264D19892C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DAB158-2823-E417-A1EC-6678A3B17347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240187E6-23E8-4E73-9D83-75C897CB1624}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E0697-FC47-44C6-AC1A-7CC75E6A77EF}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -969,7 +960,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1014,7 +1005,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1046,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>947026</v>
+        <v>917514</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1099,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1122,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29512</v>
+        <v>140000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>3745000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>42182</v>
+        <v>42800</v>
       </c>
       <c r="G17" s="18">
-        <v>1054563</v>
+        <v>1070000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1159,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>42182</v>
+        <v>29512</v>
       </c>
       <c r="G18" s="18">
-        <v>1054563</v>
+        <v>737800</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1182,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>4667</v>
+        <v>140000</v>
       </c>
       <c r="G19" s="18">
         <v>3745000</v>
@@ -1205,19 +1196,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>140000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>3745000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1228,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>140000</v>
@@ -1251,16 +1242,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>140000</v>
+        <v>4667</v>
       </c>
       <c r="G22" s="18">
         <v>3745000</v>
@@ -1274,16 +1265,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>1333</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1297,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="18">
-        <v>42800</v>
+        <v>17708</v>
       </c>
       <c r="G24" s="18">
-        <v>1070000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1317,22 +1308,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
-        <v>17708</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1340,22 +1331,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F26" s="18">
-        <v>50880</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>1316520</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1366,19 +1357,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F27" s="18">
-        <v>29512</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>737800</v>
+        <v>1060000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1395,13 +1386,13 @@
         <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F28" s="18">
-        <v>1333</v>
+        <v>42182</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1054563</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1409,22 +1400,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>42182</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>1054563</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1432,22 +1423,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>50880</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1980560</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,86 +1461,63 @@
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1060000</v>
+        <v>2536480</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="F32" s="24">
         <v>80000</v>
       </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="G32" s="24">
+        <v>2536480</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005923141.xlsx
+++ b/Data/EC/NIT-9005923141.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{160A67E2-0D74-4766-9E85-DE89C5B960A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F52D6E6-3CE6-4EB4-A859-0828EB249C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69967ADB-2A81-434F-860C-A0A0BAC5B2BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{111C3868-F1F6-4E72-94B1-F349E96A3E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -284,7 +282,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,29 +478,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,19 +519,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DAB158-2823-E417-A1EC-6678A3B17347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13D478E-ACA4-FF14-82DB-C8C3CFDD6D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E0697-FC47-44C6-AC1A-7CC75E6A77EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C507CE-AD7B-4826-A35B-7D96C9CE52A4}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -958,49 +964,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1008,7 +1014,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005923141</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>917514</v>
       </c>
@@ -1109,18 +1115,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>140000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>3745000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1132,18 +1138,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>42800</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1070000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1155,18 +1161,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29512</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>737800</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1178,18 +1184,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>140000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>3745000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1201,18 +1207,18 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1224,18 +1230,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>140000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>3745000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1247,18 +1253,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>4667</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>3745000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1270,18 +1276,18 @@
       <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>1333</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1293,18 +1299,18 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>17708</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>781242</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1316,18 +1322,18 @@
       <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>828116</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1339,18 +1345,18 @@
       <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33125</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>828116</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1362,18 +1368,18 @@
       <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1060000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1385,18 +1391,18 @@
       <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>42182</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1054563</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1408,18 +1414,18 @@
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>42182</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1054563</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1431,18 +1437,18 @@
       <c r="D30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>50880</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1980560</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1454,47 +1460,47 @@
       <c r="D31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>40000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>2536480</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="26">
         <v>80000</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="26">
         <v>2536480</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1502,10 +1508,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="34"/>
       <c r="H38" s="1" t="s">
         <v>55</v>
       </c>
